--- a/Paper + Book Summaries.xlsx
+++ b/Paper + Book Summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcheng/Desktop/Comprehensive-Exam-Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C854DA89-7DBC-FF4A-8ADA-DFB6569531C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065421C9-0B7A-6B48-9768-BA734254FF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scaling Fisheries" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
   <si>
     <t>Section</t>
   </si>
@@ -953,9 +953,6 @@
 '- Use of at-sea macroscopic methods in assessments should not be done given their proclivity to underestiamte the age-at-maturity. We should always validate macroscopic at-sea observations with microscopic histology.</t>
   </si>
   <si>
-    <t>Rodgveller et al (2015) Age at maturity, skipped spawning, and fecundity of female sablefish (Anoplopoma fimbria) during the spawning season</t>
-  </si>
-  <si>
     <t>- To investigate the potential for skipped spawning in AK sablefish, its impacts in the assessment wrt how skipped spawning is characterized, and the relationship between relative fecundity and age</t>
   </si>
   <si>
@@ -999,6 +996,44 @@
 '- Relative fecunidty is age-invariant suggesting that SSB scales linearly with egg production.
 '- Assuming skipped spawn fish as mature can have big implications in assessment results and SSB. 
 '- Macroscopic methods are probably not reliable (which is confirmed by the follow up study by Cara). </t>
+  </si>
+  <si>
+    <t>Rodgveller et al (2018) Age-at-Maturity and Fecundity of Female Sablefish Sampled in December of 2011 and 2015 in the Gulf of Alaska</t>
+  </si>
+  <si>
+    <t>Rodgveller et al (2016) Age at maturity, skipped spawning, and fecundity of female sablefish (Anoplopoma fimbria) during the spawning season</t>
+  </si>
+  <si>
+    <t>- To compare estimates of age-at-maturity, skipped spawning, and relative fecunidty from a previous study in 2011.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Field study collecting samples in the same Kodiak Island locations, alhtough with more samples along the slopes rather than the shelves, compared to a previous study.
+'- All fish sampled here instead of a length-stratified sampling scheme as used in 2011. 
+'- Typical methods used to exmaine maturity and histology.
+'- Relative fecunidty was assessed using the graviometric method.
+'- Logistic maturity curves were constructed using a binomial likelihood using standard methods. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- As noted in previous studies,the ideal time to sample mature sablefish is prior to spawning (so around December). You want to make sure there are not hydrated oocytes at this point.
+'- Skipped spawnining is a plastic trait, and changes in the rate of skipped spawning will result in changes in the functional maturity curve.
+'- Relative fecundity was previously found to be age-invariant suggesting that it scales linearly with age. However, this might be unreasonalbe and it is most likely that it does not scale lienarly and instead asymptotes because fecunidty is most related to weight as opposed to age. 
+'- Sampled more along the slopes in this study and found more old fish as expected, given their ontogenetic movements - seemed to be more males observed than females in contrast to Mason et al. 
+'- Found that fish that are not yet fully mature generally have a higher prevalance of skipped spanwing, which makes more sense from a biological and life-history standpoint - you expect older fish to not really skipped spawn because they aren't gonna be putting too much energy into somatic growth. Probably compared to the previous study, there was a positive relationship because they were sampling mainly only slopes where young fish ocucred - it might just be a sampling thing. 
+'- The age-at-mturity curves in the most recent year did not show dramatic differences likely because less fish were characterized as skipped spawners.
+'- In general, skipped spawning was more prevalant in 2011 than 2015, likely due to plasticity - switch from cool PDO phase to warm PDO phase potentially had something to do with it.
+'- Relative fecundity declined over ages - but the effect is so small that it probably doesn't matter that much and likely attributed to sampling noise. While relative fecundity declined over ages, the overall fecundity does not decline - but rather it will scale accordingly with weight.
+'- Decline in skipped spawning over ages suggests and the majority of fish skipped spawning are not yet fully mature - suggests that there is a potential for fish to prioritize growth rather than maturity at those younger ages to increase lifetime egg prdocution. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Skipped spawning was less prevalent relative to previous years.  
+'- Relative fecudity declined over ages, suggesting that less eggs are procduced with increasing ages (on a relative sense). 
+'- The proportion of skipped spawners decliend over ages (pooling 2011 and 2015 data). Makes more sense given that younger fish might prioritize somatic growth more. </t>
+  </si>
+  <si>
+    <t>- Not much to comment here - skipped spawning is likely plastic, and time-varying maturity should probably be considered in an assessment context - but more biologicla data in this respect should be collected.</t>
+  </si>
+  <si>
+    <t>- I think there are some issues here - don't think some of the effects are being adequately controlled for (e.g., length-stratified vs complete sampling). Probably also lack of sampling and difference in slope shelf sampling can result in some biased results, if not adequately controleld for.</t>
   </si>
 </sst>
 </file>
@@ -1575,9 +1610,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="17" x14ac:dyDescent="0.2"/>
@@ -2004,25 +2039,25 @@
     </row>
     <row r="11" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="C11" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="F11" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>116</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -2043,14 +2078,28 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="13"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
+    <row r="12" spans="1:25" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>125</v>
+      </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
       <c r="J12" s="13"/>
